--- a/base_variáveis.xlsx
+++ b/base_variáveis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
   <si>
     <t xml:space="preserve">codigo</t>
   </si>
@@ -608,556 +608,283 @@
     <t xml:space="preserve">3300100</t>
   </si>
   <si>
-    <t xml:space="preserve">Angra dos Reis (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">populacao</t>
   </si>
   <si>
     <t xml:space="preserve">3300159</t>
   </si>
   <si>
-    <t xml:space="preserve">Aperibé (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3300209</t>
   </si>
   <si>
-    <t xml:space="preserve">Araruama (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3300225</t>
   </si>
   <si>
-    <t xml:space="preserve">Areal (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3300233</t>
   </si>
   <si>
-    <t xml:space="preserve">Armação dos Búzios (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3300258</t>
   </si>
   <si>
-    <t xml:space="preserve">Arraial do Cabo (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3300308</t>
   </si>
   <si>
-    <t xml:space="preserve">Barra do Piraí (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3300407</t>
   </si>
   <si>
-    <t xml:space="preserve">Barra Mansa (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3300456</t>
   </si>
   <si>
-    <t xml:space="preserve">Belford Roxo (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3300506</t>
   </si>
   <si>
-    <t xml:space="preserve">Bom Jardim (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3300605</t>
   </si>
   <si>
-    <t xml:space="preserve">Bom Jesus do Itabapoana (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3300704</t>
   </si>
   <si>
-    <t xml:space="preserve">Cabo Frio (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3300803</t>
   </si>
   <si>
-    <t xml:space="preserve">Cachoeiras de Macacu (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3300902</t>
   </si>
   <si>
-    <t xml:space="preserve">Cambuci (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3300936</t>
   </si>
   <si>
-    <t xml:space="preserve">Carapebus (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3300951</t>
   </si>
   <si>
-    <t xml:space="preserve">Comendador Levy Gasparian (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3301009</t>
   </si>
   <si>
-    <t xml:space="preserve">Campos dos Goytacazes (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3301108</t>
   </si>
   <si>
-    <t xml:space="preserve">Cantagalo (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3301157</t>
   </si>
   <si>
-    <t xml:space="preserve">Cardoso Moreira (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3301207</t>
   </si>
   <si>
-    <t xml:space="preserve">Carmo (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3301306</t>
   </si>
   <si>
-    <t xml:space="preserve">Casimiro de Abreu (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3301405</t>
   </si>
   <si>
-    <t xml:space="preserve">Conceição de Macabu (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3301504</t>
   </si>
   <si>
-    <t xml:space="preserve">Cordeiro (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3301603</t>
   </si>
   <si>
-    <t xml:space="preserve">Duas Barras (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3301702</t>
   </si>
   <si>
-    <t xml:space="preserve">Duque de Caxias (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3301801</t>
   </si>
   <si>
-    <t xml:space="preserve">Engenheiro Paulo de Frontin (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3301850</t>
   </si>
   <si>
-    <t xml:space="preserve">Guapimirim (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3301876</t>
   </si>
   <si>
-    <t xml:space="preserve">Iguaba Grande (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3301900</t>
   </si>
   <si>
-    <t xml:space="preserve">Itaboraí (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3302007</t>
   </si>
   <si>
-    <t xml:space="preserve">Itaguaí (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3302056</t>
   </si>
   <si>
-    <t xml:space="preserve">Italva (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3302106</t>
   </si>
   <si>
-    <t xml:space="preserve">Itaocara (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3302205</t>
   </si>
   <si>
-    <t xml:space="preserve">Itaperuna (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3302254</t>
   </si>
   <si>
-    <t xml:space="preserve">Itatiaia (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3302270</t>
   </si>
   <si>
-    <t xml:space="preserve">Japeri (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3302304</t>
   </si>
   <si>
-    <t xml:space="preserve">Laje do Muriaé (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3302403</t>
   </si>
   <si>
-    <t xml:space="preserve">Macaé (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3302452</t>
   </si>
   <si>
-    <t xml:space="preserve">Macuco (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3302502</t>
   </si>
   <si>
-    <t xml:space="preserve">Magé (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3302601</t>
   </si>
   <si>
-    <t xml:space="preserve">Mangaratiba (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3302700</t>
   </si>
   <si>
-    <t xml:space="preserve">Maricá (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3302809</t>
   </si>
   <si>
-    <t xml:space="preserve">Mendes (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3302858</t>
   </si>
   <si>
-    <t xml:space="preserve">Mesquita (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3302908</t>
   </si>
   <si>
-    <t xml:space="preserve">Miguel Pereira (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3303005</t>
   </si>
   <si>
-    <t xml:space="preserve">Miracema (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3303104</t>
   </si>
   <si>
-    <t xml:space="preserve">Natividade (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3303203</t>
   </si>
   <si>
-    <t xml:space="preserve">Nilópolis (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3303302</t>
   </si>
   <si>
-    <t xml:space="preserve">Niterói (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3303401</t>
   </si>
   <si>
-    <t xml:space="preserve">Nova Friburgo (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3303500</t>
   </si>
   <si>
-    <t xml:space="preserve">Nova Iguaçu (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3303609</t>
   </si>
   <si>
-    <t xml:space="preserve">Paracambi (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3303708</t>
   </si>
   <si>
-    <t xml:space="preserve">Paraíba do Sul (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3303807</t>
   </si>
   <si>
-    <t xml:space="preserve">Paraty (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3303856</t>
   </si>
   <si>
-    <t xml:space="preserve">Paty do Alferes (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3303906</t>
   </si>
   <si>
-    <t xml:space="preserve">Petrópolis (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3303955</t>
   </si>
   <si>
-    <t xml:space="preserve">Pinheiral (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3304003</t>
   </si>
   <si>
-    <t xml:space="preserve">Piraí (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3304102</t>
   </si>
   <si>
-    <t xml:space="preserve">Porciúncula (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3304110</t>
   </si>
   <si>
-    <t xml:space="preserve">Porto Real (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3304128</t>
   </si>
   <si>
-    <t xml:space="preserve">Quatis (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3304144</t>
   </si>
   <si>
-    <t xml:space="preserve">Queimados (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3304151</t>
   </si>
   <si>
-    <t xml:space="preserve">Quissamã (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3304201</t>
   </si>
   <si>
-    <t xml:space="preserve">Resende (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3304300</t>
   </si>
   <si>
-    <t xml:space="preserve">Rio Bonito (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3304409</t>
   </si>
   <si>
-    <t xml:space="preserve">Rio Claro (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3304508</t>
   </si>
   <si>
-    <t xml:space="preserve">Rio das Flores (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3304524</t>
   </si>
   <si>
-    <t xml:space="preserve">Rio das Ostras (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3304557</t>
   </si>
   <si>
-    <t xml:space="preserve">Rio de Janeiro (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3304607</t>
   </si>
   <si>
-    <t xml:space="preserve">Santa Maria Madalena (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3304706</t>
   </si>
   <si>
-    <t xml:space="preserve">Santo Antônio de Pádua (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3304755</t>
   </si>
   <si>
-    <t xml:space="preserve">São Francisco de Itabapoana (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3304805</t>
   </si>
   <si>
-    <t xml:space="preserve">São Fidélis (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3304904</t>
   </si>
   <si>
-    <t xml:space="preserve">São Gonçalo (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3305000</t>
   </si>
   <si>
-    <t xml:space="preserve">São João da Barra (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3305109</t>
   </si>
   <si>
-    <t xml:space="preserve">São João de Meriti (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3305133</t>
   </si>
   <si>
-    <t xml:space="preserve">São José de Ubá (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3305158</t>
   </si>
   <si>
-    <t xml:space="preserve">São José do Vale do Rio Preto (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3305208</t>
   </si>
   <si>
-    <t xml:space="preserve">São Pedro da Aldeia (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3305307</t>
   </si>
   <si>
-    <t xml:space="preserve">São Sebastião do Alto (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3305406</t>
   </si>
   <si>
-    <t xml:space="preserve">Sapucaia (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3305505</t>
   </si>
   <si>
-    <t xml:space="preserve">Saquarema (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3305554</t>
   </si>
   <si>
-    <t xml:space="preserve">Seropédica (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3305604</t>
   </si>
   <si>
-    <t xml:space="preserve">Silva Jardim (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3305703</t>
   </si>
   <si>
-    <t xml:space="preserve">Sumidouro (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3305752</t>
   </si>
   <si>
-    <t xml:space="preserve">Tanguá (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3305802</t>
   </si>
   <si>
-    <t xml:space="preserve">Teresópolis (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3305901</t>
   </si>
   <si>
-    <t xml:space="preserve">Trajano de Moraes (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3306008</t>
   </si>
   <si>
-    <t xml:space="preserve">Três Rios (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3306107</t>
   </si>
   <si>
-    <t xml:space="preserve">Valença (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3306156</t>
   </si>
   <si>
-    <t xml:space="preserve">Varre-Sai (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3306206</t>
   </si>
   <si>
-    <t xml:space="preserve">Vassouras (RJ)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3306305</t>
   </si>
   <si>
-    <t xml:space="preserve">Volta Redonda (RJ)</t>
+    <t xml:space="preserve">populacao_60_mais</t>
   </si>
 </sst>
 </file>
@@ -12457,10 +12184,10 @@
         <v>197</v>
       </c>
       <c r="B646" t="s">
+        <v>6</v>
+      </c>
+      <c r="C646" t="s">
         <v>198</v>
-      </c>
-      <c r="C646" t="s">
-        <v>199</v>
       </c>
       <c r="D646" t="n">
         <v>0</v>
@@ -12471,13 +12198,13 @@
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B647" t="s">
-        <v>201</v>
+        <v>9</v>
       </c>
       <c r="C647" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D647" t="n">
         <v>0</v>
@@ -12488,13 +12215,13 @@
     </row>
     <row r="648">
       <c r="A648" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B648" t="s">
-        <v>203</v>
+        <v>11</v>
       </c>
       <c r="C648" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D648" t="n">
         <v>0</v>
@@ -12505,13 +12232,13 @@
     </row>
     <row r="649">
       <c r="A649" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B649" t="s">
-        <v>205</v>
+        <v>13</v>
       </c>
       <c r="C649" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D649" t="n">
         <v>0</v>
@@ -12522,13 +12249,13 @@
     </row>
     <row r="650">
       <c r="A650" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B650" t="s">
-        <v>207</v>
+        <v>15</v>
       </c>
       <c r="C650" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D650" t="n">
         <v>0</v>
@@ -12539,13 +12266,13 @@
     </row>
     <row r="651">
       <c r="A651" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B651" t="s">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="C651" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D651" t="n">
         <v>0</v>
@@ -12556,13 +12283,13 @@
     </row>
     <row r="652">
       <c r="A652" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B652" t="s">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="C652" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D652" t="n">
         <v>0</v>
@@ -12573,13 +12300,13 @@
     </row>
     <row r="653">
       <c r="A653" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B653" t="s">
-        <v>213</v>
+        <v>21</v>
       </c>
       <c r="C653" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D653" t="n">
         <v>0</v>
@@ -12590,13 +12317,13 @@
     </row>
     <row r="654">
       <c r="A654" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B654" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="C654" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D654" t="n">
         <v>0</v>
@@ -12607,13 +12334,13 @@
     </row>
     <row r="655">
       <c r="A655" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B655" t="s">
-        <v>217</v>
+        <v>25</v>
       </c>
       <c r="C655" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D655" t="n">
         <v>0</v>
@@ -12624,13 +12351,13 @@
     </row>
     <row r="656">
       <c r="A656" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B656" t="s">
-        <v>219</v>
+        <v>27</v>
       </c>
       <c r="C656" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D656" t="n">
         <v>0</v>
@@ -12641,13 +12368,13 @@
     </row>
     <row r="657">
       <c r="A657" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B657" t="s">
-        <v>221</v>
+        <v>29</v>
       </c>
       <c r="C657" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D657" t="n">
         <v>0</v>
@@ -12658,13 +12385,13 @@
     </row>
     <row r="658">
       <c r="A658" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B658" t="s">
-        <v>223</v>
+        <v>31</v>
       </c>
       <c r="C658" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D658" t="n">
         <v>0</v>
@@ -12675,13 +12402,13 @@
     </row>
     <row r="659">
       <c r="A659" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B659" t="s">
-        <v>225</v>
+        <v>33</v>
       </c>
       <c r="C659" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D659" t="n">
         <v>0</v>
@@ -12692,13 +12419,13 @@
     </row>
     <row r="660">
       <c r="A660" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B660" t="s">
-        <v>227</v>
+        <v>35</v>
       </c>
       <c r="C660" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D660" t="n">
         <v>0</v>
@@ -12709,13 +12436,13 @@
     </row>
     <row r="661">
       <c r="A661" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B661" t="s">
-        <v>229</v>
+        <v>37</v>
       </c>
       <c r="C661" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D661" t="n">
         <v>0</v>
@@ -12726,13 +12453,13 @@
     </row>
     <row r="662">
       <c r="A662" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="B662" t="s">
-        <v>231</v>
+        <v>39</v>
       </c>
       <c r="C662" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D662" t="n">
         <v>0</v>
@@ -12743,13 +12470,13 @@
     </row>
     <row r="663">
       <c r="A663" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="B663" t="s">
-        <v>233</v>
+        <v>41</v>
       </c>
       <c r="C663" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D663" t="n">
         <v>0</v>
@@ -12760,13 +12487,13 @@
     </row>
     <row r="664">
       <c r="A664" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="B664" t="s">
-        <v>235</v>
+        <v>43</v>
       </c>
       <c r="C664" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D664" t="n">
         <v>0</v>
@@ -12777,13 +12504,13 @@
     </row>
     <row r="665">
       <c r="A665" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="B665" t="s">
-        <v>237</v>
+        <v>45</v>
       </c>
       <c r="C665" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D665" t="n">
         <v>0</v>
@@ -12794,13 +12521,13 @@
     </row>
     <row r="666">
       <c r="A666" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="B666" t="s">
-        <v>239</v>
+        <v>47</v>
       </c>
       <c r="C666" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D666" t="n">
         <v>0</v>
@@ -12811,13 +12538,13 @@
     </row>
     <row r="667">
       <c r="A667" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="B667" t="s">
-        <v>241</v>
+        <v>49</v>
       </c>
       <c r="C667" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D667" t="n">
         <v>0</v>
@@ -12828,13 +12555,13 @@
     </row>
     <row r="668">
       <c r="A668" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="B668" t="s">
-        <v>243</v>
+        <v>51</v>
       </c>
       <c r="C668" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D668" t="n">
         <v>0</v>
@@ -12845,13 +12572,13 @@
     </row>
     <row r="669">
       <c r="A669" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="B669" t="s">
-        <v>245</v>
+        <v>53</v>
       </c>
       <c r="C669" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D669" t="n">
         <v>0</v>
@@ -12862,13 +12589,13 @@
     </row>
     <row r="670">
       <c r="A670" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="B670" t="s">
-        <v>247</v>
+        <v>55</v>
       </c>
       <c r="C670" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D670" t="n">
         <v>0</v>
@@ -12879,13 +12606,13 @@
     </row>
     <row r="671">
       <c r="A671" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="B671" t="s">
-        <v>249</v>
+        <v>57</v>
       </c>
       <c r="C671" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D671" t="n">
         <v>0</v>
@@ -12896,13 +12623,13 @@
     </row>
     <row r="672">
       <c r="A672" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="B672" t="s">
-        <v>251</v>
+        <v>59</v>
       </c>
       <c r="C672" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D672" t="n">
         <v>0</v>
@@ -12913,13 +12640,13 @@
     </row>
     <row r="673">
       <c r="A673" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="B673" t="s">
-        <v>253</v>
+        <v>61</v>
       </c>
       <c r="C673" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D673" t="n">
         <v>0</v>
@@ -12930,13 +12657,13 @@
     </row>
     <row r="674">
       <c r="A674" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="B674" t="s">
-        <v>255</v>
+        <v>63</v>
       </c>
       <c r="C674" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D674" t="n">
         <v>0</v>
@@ -12947,13 +12674,13 @@
     </row>
     <row r="675">
       <c r="A675" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="B675" t="s">
-        <v>257</v>
+        <v>65</v>
       </c>
       <c r="C675" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D675" t="n">
         <v>0</v>
@@ -12964,13 +12691,13 @@
     </row>
     <row r="676">
       <c r="A676" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="B676" t="s">
-        <v>259</v>
+        <v>67</v>
       </c>
       <c r="C676" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D676" t="n">
         <v>0</v>
@@ -12981,13 +12708,13 @@
     </row>
     <row r="677">
       <c r="A677" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="B677" t="s">
-        <v>261</v>
+        <v>69</v>
       </c>
       <c r="C677" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D677" t="n">
         <v>0</v>
@@ -12998,13 +12725,13 @@
     </row>
     <row r="678">
       <c r="A678" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="B678" t="s">
-        <v>263</v>
+        <v>71</v>
       </c>
       <c r="C678" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D678" t="n">
         <v>0</v>
@@ -13015,13 +12742,13 @@
     </row>
     <row r="679">
       <c r="A679" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="B679" t="s">
-        <v>265</v>
+        <v>73</v>
       </c>
       <c r="C679" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D679" t="n">
         <v>0</v>
@@ -13032,13 +12759,13 @@
     </row>
     <row r="680">
       <c r="A680" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="B680" t="s">
-        <v>267</v>
+        <v>75</v>
       </c>
       <c r="C680" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D680" t="n">
         <v>0</v>
@@ -13049,13 +12776,13 @@
     </row>
     <row r="681">
       <c r="A681" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="B681" t="s">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="C681" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D681" t="n">
         <v>0</v>
@@ -13066,13 +12793,13 @@
     </row>
     <row r="682">
       <c r="A682" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="B682" t="s">
-        <v>271</v>
+        <v>79</v>
       </c>
       <c r="C682" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D682" t="n">
         <v>0</v>
@@ -13083,13 +12810,13 @@
     </row>
     <row r="683">
       <c r="A683" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="B683" t="s">
-        <v>273</v>
+        <v>81</v>
       </c>
       <c r="C683" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D683" t="n">
         <v>0</v>
@@ -13100,13 +12827,13 @@
     </row>
     <row r="684">
       <c r="A684" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="B684" t="s">
-        <v>275</v>
+        <v>83</v>
       </c>
       <c r="C684" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D684" t="n">
         <v>0</v>
@@ -13117,13 +12844,13 @@
     </row>
     <row r="685">
       <c r="A685" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="B685" t="s">
-        <v>277</v>
+        <v>85</v>
       </c>
       <c r="C685" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D685" t="n">
         <v>0</v>
@@ -13134,13 +12861,13 @@
     </row>
     <row r="686">
       <c r="A686" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="B686" t="s">
-        <v>279</v>
+        <v>87</v>
       </c>
       <c r="C686" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D686" t="n">
         <v>0</v>
@@ -13151,13 +12878,13 @@
     </row>
     <row r="687">
       <c r="A687" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="B687" t="s">
-        <v>281</v>
+        <v>89</v>
       </c>
       <c r="C687" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D687" t="n">
         <v>0</v>
@@ -13168,13 +12895,13 @@
     </row>
     <row r="688">
       <c r="A688" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
       <c r="B688" t="s">
-        <v>283</v>
+        <v>91</v>
       </c>
       <c r="C688" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D688" t="n">
         <v>0</v>
@@ -13185,13 +12912,13 @@
     </row>
     <row r="689">
       <c r="A689" t="s">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="B689" t="s">
-        <v>285</v>
+        <v>93</v>
       </c>
       <c r="C689" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D689" t="n">
         <v>0</v>
@@ -13202,13 +12929,13 @@
     </row>
     <row r="690">
       <c r="A690" t="s">
-        <v>286</v>
+        <v>242</v>
       </c>
       <c r="B690" t="s">
-        <v>287</v>
+        <v>95</v>
       </c>
       <c r="C690" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D690" t="n">
         <v>0</v>
@@ -13219,13 +12946,13 @@
     </row>
     <row r="691">
       <c r="A691" t="s">
-        <v>288</v>
+        <v>243</v>
       </c>
       <c r="B691" t="s">
-        <v>289</v>
+        <v>97</v>
       </c>
       <c r="C691" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D691" t="n">
         <v>0</v>
@@ -13236,13 +12963,13 @@
     </row>
     <row r="692">
       <c r="A692" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="B692" t="s">
-        <v>291</v>
+        <v>99</v>
       </c>
       <c r="C692" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D692" t="n">
         <v>0</v>
@@ -13253,13 +12980,13 @@
     </row>
     <row r="693">
       <c r="A693" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="B693" t="s">
-        <v>293</v>
+        <v>101</v>
       </c>
       <c r="C693" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D693" t="n">
         <v>0</v>
@@ -13270,13 +12997,13 @@
     </row>
     <row r="694">
       <c r="A694" t="s">
-        <v>294</v>
+        <v>246</v>
       </c>
       <c r="B694" t="s">
-        <v>295</v>
+        <v>103</v>
       </c>
       <c r="C694" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D694" t="n">
         <v>0</v>
@@ -13287,13 +13014,13 @@
     </row>
     <row r="695">
       <c r="A695" t="s">
-        <v>296</v>
+        <v>247</v>
       </c>
       <c r="B695" t="s">
-        <v>297</v>
+        <v>105</v>
       </c>
       <c r="C695" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D695" t="n">
         <v>0</v>
@@ -13304,13 +13031,13 @@
     </row>
     <row r="696">
       <c r="A696" t="s">
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="B696" t="s">
-        <v>299</v>
+        <v>107</v>
       </c>
       <c r="C696" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D696" t="n">
         <v>0</v>
@@ -13321,13 +13048,13 @@
     </row>
     <row r="697">
       <c r="A697" t="s">
-        <v>300</v>
+        <v>249</v>
       </c>
       <c r="B697" t="s">
-        <v>301</v>
+        <v>109</v>
       </c>
       <c r="C697" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D697" t="n">
         <v>0</v>
@@ -13338,13 +13065,13 @@
     </row>
     <row r="698">
       <c r="A698" t="s">
-        <v>302</v>
+        <v>250</v>
       </c>
       <c r="B698" t="s">
-        <v>303</v>
+        <v>111</v>
       </c>
       <c r="C698" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D698" t="n">
         <v>0</v>
@@ -13355,13 +13082,13 @@
     </row>
     <row r="699">
       <c r="A699" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
       <c r="B699" t="s">
-        <v>305</v>
+        <v>113</v>
       </c>
       <c r="C699" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D699" t="n">
         <v>0</v>
@@ -13372,13 +13099,13 @@
     </row>
     <row r="700">
       <c r="A700" t="s">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="B700" t="s">
-        <v>307</v>
+        <v>115</v>
       </c>
       <c r="C700" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D700" t="n">
         <v>0</v>
@@ -13389,13 +13116,13 @@
     </row>
     <row r="701">
       <c r="A701" t="s">
-        <v>308</v>
+        <v>253</v>
       </c>
       <c r="B701" t="s">
-        <v>309</v>
+        <v>117</v>
       </c>
       <c r="C701" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D701" t="n">
         <v>0</v>
@@ -13406,13 +13133,13 @@
     </row>
     <row r="702">
       <c r="A702" t="s">
-        <v>310</v>
+        <v>254</v>
       </c>
       <c r="B702" t="s">
-        <v>311</v>
+        <v>119</v>
       </c>
       <c r="C702" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D702" t="n">
         <v>0</v>
@@ -13423,13 +13150,13 @@
     </row>
     <row r="703">
       <c r="A703" t="s">
-        <v>312</v>
+        <v>255</v>
       </c>
       <c r="B703" t="s">
-        <v>313</v>
+        <v>121</v>
       </c>
       <c r="C703" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D703" t="n">
         <v>0</v>
@@ -13440,13 +13167,13 @@
     </row>
     <row r="704">
       <c r="A704" t="s">
-        <v>314</v>
+        <v>256</v>
       </c>
       <c r="B704" t="s">
-        <v>315</v>
+        <v>123</v>
       </c>
       <c r="C704" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D704" t="n">
         <v>0</v>
@@ -13457,13 +13184,13 @@
     </row>
     <row r="705">
       <c r="A705" t="s">
-        <v>316</v>
+        <v>257</v>
       </c>
       <c r="B705" t="s">
-        <v>317</v>
+        <v>125</v>
       </c>
       <c r="C705" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D705" t="n">
         <v>0</v>
@@ -13474,13 +13201,13 @@
     </row>
     <row r="706">
       <c r="A706" t="s">
-        <v>318</v>
+        <v>258</v>
       </c>
       <c r="B706" t="s">
-        <v>319</v>
+        <v>127</v>
       </c>
       <c r="C706" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D706" t="n">
         <v>0</v>
@@ -13491,13 +13218,13 @@
     </row>
     <row r="707">
       <c r="A707" t="s">
-        <v>320</v>
+        <v>259</v>
       </c>
       <c r="B707" t="s">
-        <v>321</v>
+        <v>129</v>
       </c>
       <c r="C707" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D707" t="n">
         <v>0</v>
@@ -13508,13 +13235,13 @@
     </row>
     <row r="708">
       <c r="A708" t="s">
-        <v>322</v>
+        <v>260</v>
       </c>
       <c r="B708" t="s">
-        <v>323</v>
+        <v>131</v>
       </c>
       <c r="C708" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D708" t="n">
         <v>0</v>
@@ -13525,13 +13252,13 @@
     </row>
     <row r="709">
       <c r="A709" t="s">
-        <v>324</v>
+        <v>261</v>
       </c>
       <c r="B709" t="s">
-        <v>325</v>
+        <v>133</v>
       </c>
       <c r="C709" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D709" t="n">
         <v>0</v>
@@ -13542,13 +13269,13 @@
     </row>
     <row r="710">
       <c r="A710" t="s">
-        <v>326</v>
+        <v>262</v>
       </c>
       <c r="B710" t="s">
-        <v>327</v>
+        <v>135</v>
       </c>
       <c r="C710" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D710" t="n">
         <v>0</v>
@@ -13559,13 +13286,13 @@
     </row>
     <row r="711">
       <c r="A711" t="s">
-        <v>328</v>
+        <v>263</v>
       </c>
       <c r="B711" t="s">
-        <v>329</v>
+        <v>137</v>
       </c>
       <c r="C711" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D711" t="n">
         <v>0</v>
@@ -13576,13 +13303,13 @@
     </row>
     <row r="712">
       <c r="A712" t="s">
-        <v>330</v>
+        <v>264</v>
       </c>
       <c r="B712" t="s">
-        <v>331</v>
+        <v>139</v>
       </c>
       <c r="C712" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D712" t="n">
         <v>0</v>
@@ -13593,13 +13320,13 @@
     </row>
     <row r="713">
       <c r="A713" t="s">
-        <v>332</v>
+        <v>265</v>
       </c>
       <c r="B713" t="s">
-        <v>333</v>
+        <v>141</v>
       </c>
       <c r="C713" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D713" t="n">
         <v>0</v>
@@ -13610,13 +13337,13 @@
     </row>
     <row r="714">
       <c r="A714" t="s">
-        <v>334</v>
+        <v>266</v>
       </c>
       <c r="B714" t="s">
-        <v>335</v>
+        <v>143</v>
       </c>
       <c r="C714" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D714" t="n">
         <v>0</v>
@@ -13627,13 +13354,13 @@
     </row>
     <row r="715">
       <c r="A715" t="s">
-        <v>336</v>
+        <v>267</v>
       </c>
       <c r="B715" t="s">
-        <v>337</v>
+        <v>145</v>
       </c>
       <c r="C715" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D715" t="n">
         <v>0</v>
@@ -13644,13 +13371,13 @@
     </row>
     <row r="716">
       <c r="A716" t="s">
-        <v>338</v>
+        <v>268</v>
       </c>
       <c r="B716" t="s">
-        <v>339</v>
+        <v>147</v>
       </c>
       <c r="C716" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D716" t="n">
         <v>0</v>
@@ -13661,13 +13388,13 @@
     </row>
     <row r="717">
       <c r="A717" t="s">
-        <v>340</v>
+        <v>269</v>
       </c>
       <c r="B717" t="s">
-        <v>341</v>
+        <v>149</v>
       </c>
       <c r="C717" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D717" t="n">
         <v>0</v>
@@ -13678,13 +13405,13 @@
     </row>
     <row r="718">
       <c r="A718" t="s">
-        <v>342</v>
+        <v>270</v>
       </c>
       <c r="B718" t="s">
-        <v>343</v>
+        <v>151</v>
       </c>
       <c r="C718" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D718" t="n">
         <v>0</v>
@@ -13695,13 +13422,13 @@
     </row>
     <row r="719">
       <c r="A719" t="s">
-        <v>344</v>
+        <v>271</v>
       </c>
       <c r="B719" t="s">
-        <v>345</v>
+        <v>153</v>
       </c>
       <c r="C719" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D719" t="n">
         <v>0</v>
@@ -13712,13 +13439,13 @@
     </row>
     <row r="720">
       <c r="A720" t="s">
-        <v>346</v>
+        <v>272</v>
       </c>
       <c r="B720" t="s">
-        <v>347</v>
+        <v>155</v>
       </c>
       <c r="C720" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D720" t="n">
         <v>0</v>
@@ -13729,13 +13456,13 @@
     </row>
     <row r="721">
       <c r="A721" t="s">
-        <v>348</v>
+        <v>273</v>
       </c>
       <c r="B721" t="s">
-        <v>349</v>
+        <v>157</v>
       </c>
       <c r="C721" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D721" t="n">
         <v>0</v>
@@ -13746,13 +13473,13 @@
     </row>
     <row r="722">
       <c r="A722" t="s">
-        <v>350</v>
+        <v>274</v>
       </c>
       <c r="B722" t="s">
-        <v>351</v>
+        <v>159</v>
       </c>
       <c r="C722" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D722" t="n">
         <v>0</v>
@@ -13763,13 +13490,13 @@
     </row>
     <row r="723">
       <c r="A723" t="s">
-        <v>352</v>
+        <v>275</v>
       </c>
       <c r="B723" t="s">
-        <v>353</v>
+        <v>161</v>
       </c>
       <c r="C723" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D723" t="n">
         <v>0</v>
@@ -13780,13 +13507,13 @@
     </row>
     <row r="724">
       <c r="A724" t="s">
-        <v>354</v>
+        <v>276</v>
       </c>
       <c r="B724" t="s">
-        <v>355</v>
+        <v>163</v>
       </c>
       <c r="C724" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D724" t="n">
         <v>0</v>
@@ -13797,13 +13524,13 @@
     </row>
     <row r="725">
       <c r="A725" t="s">
-        <v>356</v>
+        <v>277</v>
       </c>
       <c r="B725" t="s">
-        <v>357</v>
+        <v>165</v>
       </c>
       <c r="C725" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D725" t="n">
         <v>0</v>
@@ -13814,13 +13541,13 @@
     </row>
     <row r="726">
       <c r="A726" t="s">
-        <v>358</v>
+        <v>278</v>
       </c>
       <c r="B726" t="s">
-        <v>359</v>
+        <v>167</v>
       </c>
       <c r="C726" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D726" t="n">
         <v>0</v>
@@ -13831,13 +13558,13 @@
     </row>
     <row r="727">
       <c r="A727" t="s">
-        <v>360</v>
+        <v>279</v>
       </c>
       <c r="B727" t="s">
-        <v>361</v>
+        <v>169</v>
       </c>
       <c r="C727" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D727" t="n">
         <v>0</v>
@@ -13848,13 +13575,13 @@
     </row>
     <row r="728">
       <c r="A728" t="s">
-        <v>362</v>
+        <v>280</v>
       </c>
       <c r="B728" t="s">
-        <v>363</v>
+        <v>171</v>
       </c>
       <c r="C728" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D728" t="n">
         <v>0</v>
@@ -13865,13 +13592,13 @@
     </row>
     <row r="729">
       <c r="A729" t="s">
-        <v>364</v>
+        <v>281</v>
       </c>
       <c r="B729" t="s">
-        <v>365</v>
+        <v>173</v>
       </c>
       <c r="C729" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D729" t="n">
         <v>0</v>
@@ -13882,13 +13609,13 @@
     </row>
     <row r="730">
       <c r="A730" t="s">
-        <v>366</v>
+        <v>282</v>
       </c>
       <c r="B730" t="s">
-        <v>367</v>
+        <v>175</v>
       </c>
       <c r="C730" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D730" t="n">
         <v>0</v>
@@ -13899,13 +13626,13 @@
     </row>
     <row r="731">
       <c r="A731" t="s">
-        <v>368</v>
+        <v>283</v>
       </c>
       <c r="B731" t="s">
-        <v>369</v>
+        <v>177</v>
       </c>
       <c r="C731" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D731" t="n">
         <v>0</v>
@@ -13916,13 +13643,13 @@
     </row>
     <row r="732">
       <c r="A732" t="s">
-        <v>370</v>
+        <v>284</v>
       </c>
       <c r="B732" t="s">
-        <v>371</v>
+        <v>179</v>
       </c>
       <c r="C732" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D732" t="n">
         <v>0</v>
@@ -13933,13 +13660,13 @@
     </row>
     <row r="733">
       <c r="A733" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="B733" t="s">
-        <v>373</v>
+        <v>181</v>
       </c>
       <c r="C733" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D733" t="n">
         <v>0</v>
@@ -13950,13 +13677,13 @@
     </row>
     <row r="734">
       <c r="A734" t="s">
-        <v>374</v>
+        <v>286</v>
       </c>
       <c r="B734" t="s">
-        <v>375</v>
+        <v>183</v>
       </c>
       <c r="C734" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D734" t="n">
         <v>0</v>
@@ -13967,13 +13694,13 @@
     </row>
     <row r="735">
       <c r="A735" t="s">
-        <v>376</v>
+        <v>287</v>
       </c>
       <c r="B735" t="s">
-        <v>377</v>
+        <v>185</v>
       </c>
       <c r="C735" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D735" t="n">
         <v>0</v>
@@ -13984,13 +13711,13 @@
     </row>
     <row r="736">
       <c r="A736" t="s">
-        <v>378</v>
+        <v>288</v>
       </c>
       <c r="B736" t="s">
-        <v>379</v>
+        <v>187</v>
       </c>
       <c r="C736" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D736" t="n">
         <v>0</v>
@@ -14001,19 +13728,1583 @@
     </row>
     <row r="737">
       <c r="A737" t="s">
-        <v>380</v>
+        <v>289</v>
       </c>
       <c r="B737" t="s">
-        <v>381</v>
+        <v>189</v>
       </c>
       <c r="C737" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D737" t="n">
         <v>0</v>
       </c>
       <c r="E737" t="n">
         <v>261563</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="s">
+        <v>197</v>
+      </c>
+      <c r="B738" t="s">
+        <v>6</v>
+      </c>
+      <c r="C738" t="s">
+        <v>290</v>
+      </c>
+      <c r="D738" t="n">
+        <v>0</v>
+      </c>
+      <c r="E738" t="n">
+        <v>25441</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="s">
+        <v>199</v>
+      </c>
+      <c r="B739" t="s">
+        <v>9</v>
+      </c>
+      <c r="C739" t="s">
+        <v>290</v>
+      </c>
+      <c r="D739" t="n">
+        <v>0</v>
+      </c>
+      <c r="E739" t="n">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="s">
+        <v>200</v>
+      </c>
+      <c r="B740" t="s">
+        <v>11</v>
+      </c>
+      <c r="C740" t="s">
+        <v>290</v>
+      </c>
+      <c r="D740" t="n">
+        <v>0</v>
+      </c>
+      <c r="E740" t="n">
+        <v>27294</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="s">
+        <v>201</v>
+      </c>
+      <c r="B741" t="s">
+        <v>13</v>
+      </c>
+      <c r="C741" t="s">
+        <v>290</v>
+      </c>
+      <c r="D741" t="n">
+        <v>0</v>
+      </c>
+      <c r="E741" t="n">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="s">
+        <v>202</v>
+      </c>
+      <c r="B742" t="s">
+        <v>15</v>
+      </c>
+      <c r="C742" t="s">
+        <v>290</v>
+      </c>
+      <c r="D742" t="n">
+        <v>0</v>
+      </c>
+      <c r="E742" t="n">
+        <v>5797</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="s">
+        <v>203</v>
+      </c>
+      <c r="B743" t="s">
+        <v>17</v>
+      </c>
+      <c r="C743" t="s">
+        <v>290</v>
+      </c>
+      <c r="D743" t="n">
+        <v>0</v>
+      </c>
+      <c r="E743" t="n">
+        <v>6273</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="s">
+        <v>204</v>
+      </c>
+      <c r="B744" t="s">
+        <v>19</v>
+      </c>
+      <c r="C744" t="s">
+        <v>290</v>
+      </c>
+      <c r="D744" t="n">
+        <v>0</v>
+      </c>
+      <c r="E744" t="n">
+        <v>19172</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="s">
+        <v>205</v>
+      </c>
+      <c r="B745" t="s">
+        <v>21</v>
+      </c>
+      <c r="C745" t="s">
+        <v>290</v>
+      </c>
+      <c r="D745" t="n">
+        <v>0</v>
+      </c>
+      <c r="E745" t="n">
+        <v>33928</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="s">
+        <v>206</v>
+      </c>
+      <c r="B746" t="s">
+        <v>23</v>
+      </c>
+      <c r="C746" t="s">
+        <v>290</v>
+      </c>
+      <c r="D746" t="n">
+        <v>0</v>
+      </c>
+      <c r="E746" t="n">
+        <v>69902</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="s">
+        <v>207</v>
+      </c>
+      <c r="B747" t="s">
+        <v>25</v>
+      </c>
+      <c r="C747" t="s">
+        <v>290</v>
+      </c>
+      <c r="D747" t="n">
+        <v>0</v>
+      </c>
+      <c r="E747" t="n">
+        <v>5187</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="s">
+        <v>208</v>
+      </c>
+      <c r="B748" t="s">
+        <v>27</v>
+      </c>
+      <c r="C748" t="s">
+        <v>290</v>
+      </c>
+      <c r="D748" t="n">
+        <v>0</v>
+      </c>
+      <c r="E748" t="n">
+        <v>7392</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="s">
+        <v>209</v>
+      </c>
+      <c r="B749" t="s">
+        <v>29</v>
+      </c>
+      <c r="C749" t="s">
+        <v>290</v>
+      </c>
+      <c r="D749" t="n">
+        <v>0</v>
+      </c>
+      <c r="E749" t="n">
+        <v>40637</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="s">
+        <v>210</v>
+      </c>
+      <c r="B750" t="s">
+        <v>31</v>
+      </c>
+      <c r="C750" t="s">
+        <v>290</v>
+      </c>
+      <c r="D750" t="n">
+        <v>0</v>
+      </c>
+      <c r="E750" t="n">
+        <v>10681</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="s">
+        <v>211</v>
+      </c>
+      <c r="B751" t="s">
+        <v>33</v>
+      </c>
+      <c r="C751" t="s">
+        <v>290</v>
+      </c>
+      <c r="D751" t="n">
+        <v>0</v>
+      </c>
+      <c r="E751" t="n">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="s">
+        <v>212</v>
+      </c>
+      <c r="B752" t="s">
+        <v>35</v>
+      </c>
+      <c r="C752" t="s">
+        <v>290</v>
+      </c>
+      <c r="D752" t="n">
+        <v>0</v>
+      </c>
+      <c r="E752" t="n">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="s">
+        <v>213</v>
+      </c>
+      <c r="B753" t="s">
+        <v>37</v>
+      </c>
+      <c r="C753" t="s">
+        <v>290</v>
+      </c>
+      <c r="D753" t="n">
+        <v>0</v>
+      </c>
+      <c r="E753" t="n">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="s">
+        <v>214</v>
+      </c>
+      <c r="B754" t="s">
+        <v>39</v>
+      </c>
+      <c r="C754" t="s">
+        <v>290</v>
+      </c>
+      <c r="D754" t="n">
+        <v>0</v>
+      </c>
+      <c r="E754" t="n">
+        <v>82566</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="s">
+        <v>215</v>
+      </c>
+      <c r="B755" t="s">
+        <v>41</v>
+      </c>
+      <c r="C755" t="s">
+        <v>290</v>
+      </c>
+      <c r="D755" t="n">
+        <v>0</v>
+      </c>
+      <c r="E755" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="s">
+        <v>216</v>
+      </c>
+      <c r="B756" t="s">
+        <v>43</v>
+      </c>
+      <c r="C756" t="s">
+        <v>290</v>
+      </c>
+      <c r="D756" t="n">
+        <v>0</v>
+      </c>
+      <c r="E756" t="n">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="s">
+        <v>217</v>
+      </c>
+      <c r="B757" t="s">
+        <v>45</v>
+      </c>
+      <c r="C757" t="s">
+        <v>290</v>
+      </c>
+      <c r="D757" t="n">
+        <v>0</v>
+      </c>
+      <c r="E757" t="n">
+        <v>3591</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="s">
+        <v>218</v>
+      </c>
+      <c r="B758" t="s">
+        <v>47</v>
+      </c>
+      <c r="C758" t="s">
+        <v>290</v>
+      </c>
+      <c r="D758" t="n">
+        <v>0</v>
+      </c>
+      <c r="E758" t="n">
+        <v>7699</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="s">
+        <v>219</v>
+      </c>
+      <c r="B759" t="s">
+        <v>49</v>
+      </c>
+      <c r="C759" t="s">
+        <v>290</v>
+      </c>
+      <c r="D759" t="n">
+        <v>0</v>
+      </c>
+      <c r="E759" t="n">
+        <v>3887</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="s">
+        <v>220</v>
+      </c>
+      <c r="B760" t="s">
+        <v>51</v>
+      </c>
+      <c r="C760" t="s">
+        <v>290</v>
+      </c>
+      <c r="D760" t="n">
+        <v>0</v>
+      </c>
+      <c r="E760" t="n">
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="s">
+        <v>221</v>
+      </c>
+      <c r="B761" t="s">
+        <v>53</v>
+      </c>
+      <c r="C761" t="s">
+        <v>290</v>
+      </c>
+      <c r="D761" t="n">
+        <v>0</v>
+      </c>
+      <c r="E761" t="n">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="s">
+        <v>222</v>
+      </c>
+      <c r="B762" t="s">
+        <v>55</v>
+      </c>
+      <c r="C762" t="s">
+        <v>290</v>
+      </c>
+      <c r="D762" t="n">
+        <v>0</v>
+      </c>
+      <c r="E762" t="n">
+        <v>128491</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="s">
+        <v>223</v>
+      </c>
+      <c r="B763" t="s">
+        <v>57</v>
+      </c>
+      <c r="C763" t="s">
+        <v>290</v>
+      </c>
+      <c r="D763" t="n">
+        <v>0</v>
+      </c>
+      <c r="E763" t="n">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="s">
+        <v>224</v>
+      </c>
+      <c r="B764" t="s">
+        <v>59</v>
+      </c>
+      <c r="C764" t="s">
+        <v>290</v>
+      </c>
+      <c r="D764" t="n">
+        <v>0</v>
+      </c>
+      <c r="E764" t="n">
+        <v>8416</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="s">
+        <v>225</v>
+      </c>
+      <c r="B765" t="s">
+        <v>61</v>
+      </c>
+      <c r="C765" t="s">
+        <v>290</v>
+      </c>
+      <c r="D765" t="n">
+        <v>0</v>
+      </c>
+      <c r="E765" t="n">
+        <v>6620</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="s">
+        <v>226</v>
+      </c>
+      <c r="B766" t="s">
+        <v>63</v>
+      </c>
+      <c r="C766" t="s">
+        <v>290</v>
+      </c>
+      <c r="D766" t="n">
+        <v>0</v>
+      </c>
+      <c r="E766" t="n">
+        <v>37276</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="s">
+        <v>227</v>
+      </c>
+      <c r="B767" t="s">
+        <v>65</v>
+      </c>
+      <c r="C767" t="s">
+        <v>290</v>
+      </c>
+      <c r="D767" t="n">
+        <v>0</v>
+      </c>
+      <c r="E767" t="n">
+        <v>18035</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="s">
+        <v>228</v>
+      </c>
+      <c r="B768" t="s">
+        <v>67</v>
+      </c>
+      <c r="C768" t="s">
+        <v>290</v>
+      </c>
+      <c r="D768" t="n">
+        <v>0</v>
+      </c>
+      <c r="E768" t="n">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="s">
+        <v>229</v>
+      </c>
+      <c r="B769" t="s">
+        <v>69</v>
+      </c>
+      <c r="C769" t="s">
+        <v>290</v>
+      </c>
+      <c r="D769" t="n">
+        <v>0</v>
+      </c>
+      <c r="E769" t="n">
+        <v>5426</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="s">
+        <v>230</v>
+      </c>
+      <c r="B770" t="s">
+        <v>71</v>
+      </c>
+      <c r="C770" t="s">
+        <v>290</v>
+      </c>
+      <c r="D770" t="n">
+        <v>0</v>
+      </c>
+      <c r="E770" t="n">
+        <v>20042</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="s">
+        <v>231</v>
+      </c>
+      <c r="B771" t="s">
+        <v>73</v>
+      </c>
+      <c r="C771" t="s">
+        <v>290</v>
+      </c>
+      <c r="D771" t="n">
+        <v>0</v>
+      </c>
+      <c r="E771" t="n">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="s">
+        <v>232</v>
+      </c>
+      <c r="B772" t="s">
+        <v>75</v>
+      </c>
+      <c r="C772" t="s">
+        <v>290</v>
+      </c>
+      <c r="D772" t="n">
+        <v>0</v>
+      </c>
+      <c r="E772" t="n">
+        <v>11659</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="s">
+        <v>233</v>
+      </c>
+      <c r="B773" t="s">
+        <v>77</v>
+      </c>
+      <c r="C773" t="s">
+        <v>290</v>
+      </c>
+      <c r="D773" t="n">
+        <v>0</v>
+      </c>
+      <c r="E773" t="n">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="s">
+        <v>234</v>
+      </c>
+      <c r="B774" t="s">
+        <v>79</v>
+      </c>
+      <c r="C774" t="s">
+        <v>290</v>
+      </c>
+      <c r="D774" t="n">
+        <v>0</v>
+      </c>
+      <c r="E774" t="n">
+        <v>32498</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="s">
+        <v>235</v>
+      </c>
+      <c r="B775" t="s">
+        <v>81</v>
+      </c>
+      <c r="C775" t="s">
+        <v>290</v>
+      </c>
+      <c r="D775" t="n">
+        <v>0</v>
+      </c>
+      <c r="E775" t="n">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="s">
+        <v>236</v>
+      </c>
+      <c r="B776" t="s">
+        <v>83</v>
+      </c>
+      <c r="C776" t="s">
+        <v>290</v>
+      </c>
+      <c r="D776" t="n">
+        <v>0</v>
+      </c>
+      <c r="E776" t="n">
+        <v>36912</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="s">
+        <v>237</v>
+      </c>
+      <c r="B777" t="s">
+        <v>85</v>
+      </c>
+      <c r="C777" t="s">
+        <v>290</v>
+      </c>
+      <c r="D777" t="n">
+        <v>0</v>
+      </c>
+      <c r="E777" t="n">
+        <v>8133</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="s">
+        <v>238</v>
+      </c>
+      <c r="B778" t="s">
+        <v>87</v>
+      </c>
+      <c r="C778" t="s">
+        <v>290</v>
+      </c>
+      <c r="D778" t="n">
+        <v>0</v>
+      </c>
+      <c r="E778" t="n">
+        <v>37915</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="s">
+        <v>239</v>
+      </c>
+      <c r="B779" t="s">
+        <v>89</v>
+      </c>
+      <c r="C779" t="s">
+        <v>290</v>
+      </c>
+      <c r="D779" t="n">
+        <v>0</v>
+      </c>
+      <c r="E779" t="n">
+        <v>4035</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="s">
+        <v>240</v>
+      </c>
+      <c r="B780" t="s">
+        <v>91</v>
+      </c>
+      <c r="C780" t="s">
+        <v>290</v>
+      </c>
+      <c r="D780" t="n">
+        <v>0</v>
+      </c>
+      <c r="E780" t="n">
+        <v>29151</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="s">
+        <v>241</v>
+      </c>
+      <c r="B781" t="s">
+        <v>93</v>
+      </c>
+      <c r="C781" t="s">
+        <v>290</v>
+      </c>
+      <c r="D781" t="n">
+        <v>0</v>
+      </c>
+      <c r="E781" t="n">
+        <v>6555</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="s">
+        <v>242</v>
+      </c>
+      <c r="B782" t="s">
+        <v>95</v>
+      </c>
+      <c r="C782" t="s">
+        <v>290</v>
+      </c>
+      <c r="D782" t="n">
+        <v>0</v>
+      </c>
+      <c r="E782" t="n">
+        <v>5325</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="s">
+        <v>243</v>
+      </c>
+      <c r="B783" t="s">
+        <v>97</v>
+      </c>
+      <c r="C783" t="s">
+        <v>290</v>
+      </c>
+      <c r="D783" t="n">
+        <v>0</v>
+      </c>
+      <c r="E783" t="n">
+        <v>3314</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="s">
+        <v>244</v>
+      </c>
+      <c r="B784" t="s">
+        <v>99</v>
+      </c>
+      <c r="C784" t="s">
+        <v>290</v>
+      </c>
+      <c r="D784" t="n">
+        <v>0</v>
+      </c>
+      <c r="E784" t="n">
+        <v>29542</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="s">
+        <v>245</v>
+      </c>
+      <c r="B785" t="s">
+        <v>101</v>
+      </c>
+      <c r="C785" t="s">
+        <v>290</v>
+      </c>
+      <c r="D785" t="n">
+        <v>0</v>
+      </c>
+      <c r="E785" t="n">
+        <v>114821</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="s">
+        <v>246</v>
+      </c>
+      <c r="B786" t="s">
+        <v>103</v>
+      </c>
+      <c r="C786" t="s">
+        <v>290</v>
+      </c>
+      <c r="D786" t="n">
+        <v>0</v>
+      </c>
+      <c r="E786" t="n">
+        <v>40427</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="s">
+        <v>247</v>
+      </c>
+      <c r="B787" t="s">
+        <v>105</v>
+      </c>
+      <c r="C787" t="s">
+        <v>290</v>
+      </c>
+      <c r="D787" t="n">
+        <v>0</v>
+      </c>
+      <c r="E787" t="n">
+        <v>127319</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="s">
+        <v>248</v>
+      </c>
+      <c r="B788" t="s">
+        <v>107</v>
+      </c>
+      <c r="C788" t="s">
+        <v>290</v>
+      </c>
+      <c r="D788" t="n">
+        <v>0</v>
+      </c>
+      <c r="E788" t="n">
+        <v>7757</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="s">
+        <v>249</v>
+      </c>
+      <c r="B789" t="s">
+        <v>109</v>
+      </c>
+      <c r="C789" t="s">
+        <v>290</v>
+      </c>
+      <c r="D789" t="n">
+        <v>0</v>
+      </c>
+      <c r="E789" t="n">
+        <v>8291</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="s">
+        <v>250</v>
+      </c>
+      <c r="B790" t="s">
+        <v>111</v>
+      </c>
+      <c r="C790" t="s">
+        <v>290</v>
+      </c>
+      <c r="D790" t="n">
+        <v>0</v>
+      </c>
+      <c r="E790" t="n">
+        <v>6306</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="s">
+        <v>251</v>
+      </c>
+      <c r="B791" t="s">
+        <v>113</v>
+      </c>
+      <c r="C791" t="s">
+        <v>290</v>
+      </c>
+      <c r="D791" t="n">
+        <v>0</v>
+      </c>
+      <c r="E791" t="n">
+        <v>5511</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="s">
+        <v>252</v>
+      </c>
+      <c r="B792" t="s">
+        <v>115</v>
+      </c>
+      <c r="C792" t="s">
+        <v>290</v>
+      </c>
+      <c r="D792" t="n">
+        <v>0</v>
+      </c>
+      <c r="E792" t="n">
+        <v>59429</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="s">
+        <v>253</v>
+      </c>
+      <c r="B793" t="s">
+        <v>117</v>
+      </c>
+      <c r="C793" t="s">
+        <v>290</v>
+      </c>
+      <c r="D793" t="n">
+        <v>0</v>
+      </c>
+      <c r="E793" t="n">
+        <v>4481</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="s">
+        <v>254</v>
+      </c>
+      <c r="B794" t="s">
+        <v>119</v>
+      </c>
+      <c r="C794" t="s">
+        <v>290</v>
+      </c>
+      <c r="D794" t="n">
+        <v>0</v>
+      </c>
+      <c r="E794" t="n">
+        <v>5218</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="s">
+        <v>255</v>
+      </c>
+      <c r="B795" t="s">
+        <v>121</v>
+      </c>
+      <c r="C795" t="s">
+        <v>290</v>
+      </c>
+      <c r="D795" t="n">
+        <v>0</v>
+      </c>
+      <c r="E795" t="n">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="s">
+        <v>256</v>
+      </c>
+      <c r="B796" t="s">
+        <v>123</v>
+      </c>
+      <c r="C796" t="s">
+        <v>290</v>
+      </c>
+      <c r="D796" t="n">
+        <v>0</v>
+      </c>
+      <c r="E796" t="n">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="s">
+        <v>257</v>
+      </c>
+      <c r="B797" t="s">
+        <v>125</v>
+      </c>
+      <c r="C797" t="s">
+        <v>290</v>
+      </c>
+      <c r="D797" t="n">
+        <v>0</v>
+      </c>
+      <c r="E797" t="n">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="s">
+        <v>258</v>
+      </c>
+      <c r="B798" t="s">
+        <v>127</v>
+      </c>
+      <c r="C798" t="s">
+        <v>290</v>
+      </c>
+      <c r="D798" t="n">
+        <v>0</v>
+      </c>
+      <c r="E798" t="n">
+        <v>20598</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="s">
+        <v>259</v>
+      </c>
+      <c r="B799" t="s">
+        <v>129</v>
+      </c>
+      <c r="C799" t="s">
+        <v>290</v>
+      </c>
+      <c r="D799" t="n">
+        <v>0</v>
+      </c>
+      <c r="E799" t="n">
+        <v>3899</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="s">
+        <v>260</v>
+      </c>
+      <c r="B800" t="s">
+        <v>131</v>
+      </c>
+      <c r="C800" t="s">
+        <v>290</v>
+      </c>
+      <c r="D800" t="n">
+        <v>0</v>
+      </c>
+      <c r="E800" t="n">
+        <v>22156</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="s">
+        <v>261</v>
+      </c>
+      <c r="B801" t="s">
+        <v>133</v>
+      </c>
+      <c r="C801" t="s">
+        <v>290</v>
+      </c>
+      <c r="D801" t="n">
+        <v>0</v>
+      </c>
+      <c r="E801" t="n">
+        <v>10559</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="s">
+        <v>262</v>
+      </c>
+      <c r="B802" t="s">
+        <v>135</v>
+      </c>
+      <c r="C802" t="s">
+        <v>290</v>
+      </c>
+      <c r="D802" t="n">
+        <v>0</v>
+      </c>
+      <c r="E802" t="n">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="s">
+        <v>263</v>
+      </c>
+      <c r="B803" t="s">
+        <v>137</v>
+      </c>
+      <c r="C803" t="s">
+        <v>290</v>
+      </c>
+      <c r="D803" t="n">
+        <v>0</v>
+      </c>
+      <c r="E803" t="n">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="s">
+        <v>264</v>
+      </c>
+      <c r="B804" t="s">
+        <v>139</v>
+      </c>
+      <c r="C804" t="s">
+        <v>290</v>
+      </c>
+      <c r="D804" t="n">
+        <v>0</v>
+      </c>
+      <c r="E804" t="n">
+        <v>23429</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="s">
+        <v>265</v>
+      </c>
+      <c r="B805" t="s">
+        <v>141</v>
+      </c>
+      <c r="C805" t="s">
+        <v>290</v>
+      </c>
+      <c r="D805" t="n">
+        <v>0</v>
+      </c>
+      <c r="E805" t="n">
+        <v>1253171</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="s">
+        <v>266</v>
+      </c>
+      <c r="B806" t="s">
+        <v>143</v>
+      </c>
+      <c r="C806" t="s">
+        <v>290</v>
+      </c>
+      <c r="D806" t="n">
+        <v>0</v>
+      </c>
+      <c r="E806" t="n">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="s">
+        <v>267</v>
+      </c>
+      <c r="B807" t="s">
+        <v>145</v>
+      </c>
+      <c r="C807" t="s">
+        <v>290</v>
+      </c>
+      <c r="D807" t="n">
+        <v>0</v>
+      </c>
+      <c r="E807" t="n">
+        <v>8521</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="s">
+        <v>268</v>
+      </c>
+      <c r="B808" t="s">
+        <v>147</v>
+      </c>
+      <c r="C808" t="s">
+        <v>290</v>
+      </c>
+      <c r="D808" t="n">
+        <v>0</v>
+      </c>
+      <c r="E808" t="n">
+        <v>8107</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="s">
+        <v>269</v>
+      </c>
+      <c r="B809" t="s">
+        <v>149</v>
+      </c>
+      <c r="C809" t="s">
+        <v>290</v>
+      </c>
+      <c r="D809" t="n">
+        <v>0</v>
+      </c>
+      <c r="E809" t="n">
+        <v>8264</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="s">
+        <v>270</v>
+      </c>
+      <c r="B810" t="s">
+        <v>151</v>
+      </c>
+      <c r="C810" t="s">
+        <v>290</v>
+      </c>
+      <c r="D810" t="n">
+        <v>0</v>
+      </c>
+      <c r="E810" t="n">
+        <v>171163</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="s">
+        <v>271</v>
+      </c>
+      <c r="B811" t="s">
+        <v>153</v>
+      </c>
+      <c r="C811" t="s">
+        <v>290</v>
+      </c>
+      <c r="D811" t="n">
+        <v>0</v>
+      </c>
+      <c r="E811" t="n">
+        <v>6944</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="s">
+        <v>272</v>
+      </c>
+      <c r="B812" t="s">
+        <v>155</v>
+      </c>
+      <c r="C812" t="s">
+        <v>290</v>
+      </c>
+      <c r="D812" t="n">
+        <v>0</v>
+      </c>
+      <c r="E812" t="n">
+        <v>75768</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="s">
+        <v>273</v>
+      </c>
+      <c r="B813" t="s">
+        <v>157</v>
+      </c>
+      <c r="C813" t="s">
+        <v>290</v>
+      </c>
+      <c r="D813" t="n">
+        <v>0</v>
+      </c>
+      <c r="E813" t="n">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="s">
+        <v>274</v>
+      </c>
+      <c r="B814" t="s">
+        <v>159</v>
+      </c>
+      <c r="C814" t="s">
+        <v>290</v>
+      </c>
+      <c r="D814" t="n">
+        <v>0</v>
+      </c>
+      <c r="E814" t="n">
+        <v>3543</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="s">
+        <v>275</v>
+      </c>
+      <c r="B815" t="s">
+        <v>161</v>
+      </c>
+      <c r="C815" t="s">
+        <v>290</v>
+      </c>
+      <c r="D815" t="n">
+        <v>0</v>
+      </c>
+      <c r="E815" t="n">
+        <v>17323</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="s">
+        <v>276</v>
+      </c>
+      <c r="B816" t="s">
+        <v>163</v>
+      </c>
+      <c r="C816" t="s">
+        <v>290</v>
+      </c>
+      <c r="D816" t="n">
+        <v>0</v>
+      </c>
+      <c r="E816" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="s">
+        <v>277</v>
+      </c>
+      <c r="B817" t="s">
+        <v>165</v>
+      </c>
+      <c r="C817" t="s">
+        <v>290</v>
+      </c>
+      <c r="D817" t="n">
+        <v>0</v>
+      </c>
+      <c r="E817" t="n">
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="s">
+        <v>278</v>
+      </c>
+      <c r="B818" t="s">
+        <v>167</v>
+      </c>
+      <c r="C818" t="s">
+        <v>290</v>
+      </c>
+      <c r="D818" t="n">
+        <v>0</v>
+      </c>
+      <c r="E818" t="n">
+        <v>19695</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="s">
+        <v>279</v>
+      </c>
+      <c r="B819" t="s">
+        <v>169</v>
+      </c>
+      <c r="C819" t="s">
+        <v>290</v>
+      </c>
+      <c r="D819" t="n">
+        <v>0</v>
+      </c>
+      <c r="E819" t="n">
+        <v>12898</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="s">
+        <v>280</v>
+      </c>
+      <c r="B820" t="s">
+        <v>171</v>
+      </c>
+      <c r="C820" t="s">
+        <v>290</v>
+      </c>
+      <c r="D820" t="n">
+        <v>0</v>
+      </c>
+      <c r="E820" t="n">
+        <v>3767</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="s">
+        <v>281</v>
+      </c>
+      <c r="B821" t="s">
+        <v>173</v>
+      </c>
+      <c r="C821" t="s">
+        <v>290</v>
+      </c>
+      <c r="D821" t="n">
+        <v>0</v>
+      </c>
+      <c r="E821" t="n">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="s">
+        <v>282</v>
+      </c>
+      <c r="B822" t="s">
+        <v>175</v>
+      </c>
+      <c r="C822" t="s">
+        <v>290</v>
+      </c>
+      <c r="D822" t="n">
+        <v>0</v>
+      </c>
+      <c r="E822" t="n">
+        <v>5105</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="s">
+        <v>283</v>
+      </c>
+      <c r="B823" t="s">
+        <v>177</v>
+      </c>
+      <c r="C823" t="s">
+        <v>290</v>
+      </c>
+      <c r="D823" t="n">
+        <v>0</v>
+      </c>
+      <c r="E823" t="n">
+        <v>32086</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="s">
+        <v>284</v>
+      </c>
+      <c r="B824" t="s">
+        <v>179</v>
+      </c>
+      <c r="C824" t="s">
+        <v>290</v>
+      </c>
+      <c r="D824" t="n">
+        <v>0</v>
+      </c>
+      <c r="E824" t="n">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="s">
+        <v>285</v>
+      </c>
+      <c r="B825" t="s">
+        <v>181</v>
+      </c>
+      <c r="C825" t="s">
+        <v>290</v>
+      </c>
+      <c r="D825" t="n">
+        <v>0</v>
+      </c>
+      <c r="E825" t="n">
+        <v>14898</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="s">
+        <v>286</v>
+      </c>
+      <c r="B826" t="s">
+        <v>183</v>
+      </c>
+      <c r="C826" t="s">
+        <v>290</v>
+      </c>
+      <c r="D826" t="n">
+        <v>0</v>
+      </c>
+      <c r="E826" t="n">
+        <v>15087</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="s">
+        <v>287</v>
+      </c>
+      <c r="B827" t="s">
+        <v>185</v>
+      </c>
+      <c r="C827" t="s">
+        <v>290</v>
+      </c>
+      <c r="D827" t="n">
+        <v>0</v>
+      </c>
+      <c r="E827" t="n">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="s">
+        <v>288</v>
+      </c>
+      <c r="B828" t="s">
+        <v>187</v>
+      </c>
+      <c r="C828" t="s">
+        <v>290</v>
+      </c>
+      <c r="D828" t="n">
+        <v>0</v>
+      </c>
+      <c r="E828" t="n">
+        <v>6774</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="s">
+        <v>289</v>
+      </c>
+      <c r="B829" t="s">
+        <v>189</v>
+      </c>
+      <c r="C829" t="s">
+        <v>290</v>
+      </c>
+      <c r="D829" t="n">
+        <v>0</v>
+      </c>
+      <c r="E829" t="n">
+        <v>55380</v>
       </c>
     </row>
   </sheetData>
